--- a/biology/Botanique/Stanhopea_reichenbachiana/Stanhopea_reichenbachiana.xlsx
+++ b/biology/Botanique/Stanhopea_reichenbachiana/Stanhopea_reichenbachiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stanhopea reichenbachiana est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) présente de l’ouest de la Colombie à l'Équateur. Il est nommé en l’honneur des botanistes Philip Henry Stanhope, 4e comte Stanhope et Heinrich Gustav Reichenbach[1].
+Stanhopea reichenbachiana est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) présente de l’ouest de la Colombie à l'Équateur. Il est nommé en l’honneur des botanistes Philip Henry Stanhope, 4e comte Stanhope et Heinrich Gustav Reichenbach.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Épiphyte de taille moyenne avec des pseudobulbes ovales, fortement côtelés et sillonnés se rétrécissant progressivement en dessous dans la feuille de base canalisée et pétiolée. Elle fleurit souvent en été (2 à 4 inflorescence fleuries) dégageant une odeur sucrée avec une taille de 6 à 10 cm de large[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Épiphyte de taille moyenne avec des pseudobulbes ovales, fortement côtelés et sillonnés se rétrécissant progressivement en dessous dans la feuille de base canalisée et pétiolée. Elle fleurit souvent en été (2 à 4 inflorescence fleuries) dégageant une odeur sucrée avec une taille de 6 à 10 cm de large. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trouvée en Équateur et en Colombie à des altitudes de 500 à 1000 mètres, elle est présente dans les forêts humides.
 </t>
@@ -574,7 +590,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante doit être cultivée à l’ombre. Conserver à des températures intermédiaires à chaudes et arroser régulièrement. Elle se cultive en pot dans de l’écorce de sapin moyen ou de la mousse de sphaigne. Gardez l’humidité élevée. Les plantes sont généralement cultivées dans des paniers.
 </t>
